--- a/heart_short.xlsx
+++ b/heart_short.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\OneDrive - Industrial University of HoChiMinh City\TEACHING\IUH\IUH.PTDL\LT\LT-PTDL-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2df5f914d4f82fa6/Máy tính/nmptdlai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E4204-5C70-4868-8FB3-494936EA0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="14_{1C7BA31F-F66E-4290-8CB1-691F865DD02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03A0436-6657-4F2D-9081-43D2796A8830}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="X_Train" sheetId="2" r:id="rId2"/>
-    <sheet name="X_Test" sheetId="3" r:id="rId3"/>
-    <sheet name="Y_Train" sheetId="4" r:id="rId4"/>
-    <sheet name="Y_Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Test" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>target</t>
   </si>
@@ -47,12 +44,24 @@
   <si>
     <t>c_index</t>
   </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>t_i</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +195,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -541,11 +544,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -922,19 +922,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D33B1-90B4-4354-956B-0ACEBCEFC5F7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="A13" activeCellId="4" sqref="A2:XFD2 A4:XFD4 A10:XFD10 A9:XFD9 A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -944,8 +944,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>145</v>
       </c>
@@ -955,8 +958,12 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>SQRT((150-A2)^2+(200-B2)^2)</f>
+        <v>33.376638536557273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>130</v>
       </c>
@@ -966,8 +973,12 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">SQRT((150-A3)^2+(200-B3)^2)</f>
+        <v>53.851648071345039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>130</v>
       </c>
@@ -977,8 +988,12 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>20.396078054371138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>130</v>
       </c>
@@ -988,8 +1003,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>57.584720195551874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>140</v>
       </c>
@@ -999,8 +1018,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.440306508910551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>130</v>
       </c>
@@ -1010,8 +1033,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>59.464274989274024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>140</v>
       </c>
@@ -1021,8 +1048,12 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>94.530418384771792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>120</v>
       </c>
@@ -1032,8 +1063,12 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>69.778220097678044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>172</v>
       </c>
@@ -1043,8 +1078,12 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>22.022715545545239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>150</v>
       </c>
@@ -1054,8 +1093,12 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>120</v>
       </c>
@@ -1065,8 +1108,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>41.725292090050132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>140</v>
       </c>
@@ -1075,6 +1122,10 @@
       </c>
       <c r="C13">
         <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>68.731361109758325</v>
       </c>
     </row>
   </sheetData>
@@ -1083,96 +1134,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D541A5-8A7F-4F48-8458-B250D4120E66}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8708917C-5621-4C9B-8C3C-56578BAF4572}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6797A9-2DE8-419E-9FF4-B132C8AD1288}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D072540-DCC1-4DEA-B158-9A6DEC347023}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C8A4E-4F13-49C3-9E52-03F2E055391B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>233</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>263</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>172</v>
+      </c>
+      <c r="B5">
+        <v>199</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>268</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
